--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66E099-E569-9341-80FD-36BB95BA70FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71704D1-6558-D948-820D-769D02B8BD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="460" windowWidth="16480" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,13 +482,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,10 +509,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>9037882</v>
